--- a/recommedation_systems/rs_hands_on/hybrid_recommendations.xlsx
+++ b/recommedation_systems/rs_hands_on/hybrid_recommendations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,72 +457,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1911123794</v>
+        <v>974222350</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6249531384988692</v>
+        <v>0.8427233908694165</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06238284624717329</v>
+        <v>0.6068084771735412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2794159304</v>
+        <v>922761776</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6230920836410934</v>
+        <v>0.8331484272796255</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0577302091027336</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2794157255</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6229940885847484</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05748522146187096</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2794930526</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6075219803554632</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01880495088865821</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2796278929</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3994502025716519</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4726982959266388</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2895780625391716</v>
+        <v>0.5828710681990635</v>
       </c>
     </row>
   </sheetData>
